--- a/trade_log.xlsx
+++ b/trade_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,6 +1257,132 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-08-11 09:15</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>171.35</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:05</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>174.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>343</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Entry 171.35, Target 174.78, Stop 169.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ETHU</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:28</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>162.78</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-12 12:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>166.04</v>
+      </c>
+      <c r="H22" t="n">
+        <v>326</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Entry 162.78, Target 166.04, Stop 161.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:55</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:05</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>LABU Entry 72.49, Target 73.94, Stop 71.77</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
